--- a/unityfiles/Assets/Resources/CharacterData/data.xlsx
+++ b/unityfiles/Assets/Resources/CharacterData/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>名前</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Name16</t>
-  </si>
-  <si>
-    <t>Name17</t>
   </si>
   <si>
     <t>説明文</t>
@@ -252,6 +249,91 @@
     <rPh sb="13" eb="15">
       <t>スバヤ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Images/Face/c011</t>
+  </si>
+  <si>
+    <t>Images/Stand/c011</t>
+  </si>
+  <si>
+    <t>Images/Face/c012</t>
+  </si>
+  <si>
+    <t>Images/Stand/c012</t>
+  </si>
+  <si>
+    <t>Images/Face/c013</t>
+  </si>
+  <si>
+    <t>Images/Stand/c013</t>
+  </si>
+  <si>
+    <t>Images/Face/c014</t>
+  </si>
+  <si>
+    <t>Images/Stand/c014</t>
+  </si>
+  <si>
+    <t>Images/Face/c015</t>
+  </si>
+  <si>
+    <t>Images/Stand/c015</t>
+  </si>
+  <si>
+    <t>Images/Face/c016</t>
+  </si>
+  <si>
+    <t>Images/Stand/c016</t>
+  </si>
+  <si>
+    <t>【ファイター】火力とHPが高い。遅い。</t>
+    <rPh sb="7" eb="9">
+      <t>カリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【チア】ユニゾンダメージ増強。</t>
+    <rPh sb="12" eb="14">
+      <t>ゾウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>【マジシャン】詠唱値が高い。火力が低く打たれ弱い。</t>
+    <rPh sb="7" eb="9">
+      <t>エイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ユニゾン</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1204,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1216,7 +1298,7 @@
     <col min="3" max="3" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,13 +1330,16 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>38</v>
+      <c r="M1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1265,18 +1350,18 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <f>800+IF(K2&gt;=3,-100,0)</f>
+        <f>800+IF(L2&gt;=3,-100,0)</f>
         <v>800</v>
       </c>
       <c r="E2">
-        <f>300-IF(K2&gt;=3,-100,0)</f>
+        <f>300-IF(L2&gt;=3,-100,0)</f>
         <v>300</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1290,11 +1375,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>39</v>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1305,18 +1393,18 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">800+IF(K3&gt;=3,-100,0)</f>
+        <f t="shared" ref="D3:D6" si="0">800+IF(L3&gt;=3,-100,0)</f>
         <v>800</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="1">300-IF(K3&gt;=3,-100,0)</f>
+        <f t="shared" ref="E3:E4" si="1">300-IF(L3&gt;=3,-100,0)</f>
         <v>300</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1328,13 +1416,16 @@
         <v>5</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
+      <c r="M3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1368,13 +1459,16 @@
         <v>5</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
+      <c r="M4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1389,14 +1483,14 @@
         <v>700</v>
       </c>
       <c r="E5">
-        <f>300+IF(K5&gt;=3,-100,0)</f>
+        <f>300+IF(L5&gt;=3,-100,0)</f>
         <v>200</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1408,13 +1502,16 @@
         <v>5</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>40</v>
+      <c r="M5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1429,14 +1526,14 @@
         <v>700</v>
       </c>
       <c r="E6">
-        <f>300+IF(K6&gt;=3,-100,0)</f>
+        <f>300+IF(L6&gt;=3,-100,0)</f>
         <v>200</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1448,35 +1545,38 @@
         <v>5</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
+      <c r="M6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
       <c r="D7">
-        <f>1000+IF(K7&gt;=3,-100,0)</f>
+        <f>1000+IF(L7&gt;=3,-100,0)</f>
         <v>900</v>
       </c>
       <c r="E7">
-        <f>250+IF(K7&gt;=3,-100,0)</f>
+        <f>250+IF(L7&gt;=3,-100,0)</f>
         <v>150</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1488,35 +1588,38 @@
         <v>6</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
+      <c r="M7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="D8">
-        <f>500+IF(K8&gt;=3,-100,0)</f>
+        <f>500+IF(L8&gt;=3,-100,0)</f>
         <v>500</v>
       </c>
       <c r="E8">
-        <f>350+IF(K8&gt;=3,-100,0)</f>
+        <f>350+IF(L8&gt;=3,-100,0)</f>
         <v>350</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1528,35 +1631,38 @@
         <v>3</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>55</v>
+      <c r="M8" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
       <c r="D9">
-        <f>700+IF(K9&gt;=3,-100,0)</f>
+        <f>700+IF(L9&gt;=3,-100,0)</f>
         <v>700</v>
       </c>
       <c r="E9">
-        <f>250+IF(K9&gt;=3,-100,0)</f>
+        <f>250+IF(L9&gt;=3,-100,0)</f>
         <v>250</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1568,35 +1674,38 @@
         <v>5</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>42</v>
+      <c r="M9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
       <c r="D10">
-        <f>500+IF(K10&gt;=3,-100,0)</f>
+        <f>500+IF(L10&gt;=3,-100,0)</f>
         <v>500</v>
       </c>
       <c r="E10">
-        <f>350+IF(K10&gt;=3,-100,0)</f>
+        <f>350+IF(L10&gt;=3,-100,0)</f>
         <v>350</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1608,35 +1717,38 @@
         <v>3</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
-        <v>56</v>
+      <c r="M10" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11">
-        <f>800+IF(K11&gt;=3,-100,0)</f>
+        <f>800+IF(L11&gt;=3,-100,0)</f>
         <v>800</v>
       </c>
       <c r="E11">
-        <f>300+IF(K11&gt;=3,-100,0)</f>
+        <f>300+IF(L11&gt;=3,-100,0)</f>
         <v>300</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1648,39 +1760,44 @@
         <v>3</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>54</v>
+      <c r="M11" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>750</v>
+        <f>900+IF(L12&gt;=3,-100,0)</f>
+        <v>900</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <f>400-IF(L12&gt;=3,-100,0)</f>
+        <v>400</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1688,57 +1805,73 @@
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>630</v>
+        <f>800+IF(L13&gt;=3,-100,0)</f>
+        <v>800</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <f>300+IF(L13&gt;=3,-100,0)</f>
+        <v>300</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D14">
+        <f>700+IF(L14&gt;=3,-100,0)</f>
         <v>600</v>
       </c>
       <c r="E14">
-        <v>190</v>
+        <f>250+IF(L14&gt;=3,-100,0)</f>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1747,112 +1880,136 @@
         <v>6</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="I14">
-        <v>9</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
+      <c r="M14" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D15">
+        <f>600+IF(L15&gt;=3,-100,0)</f>
         <v>600</v>
       </c>
       <c r="E15">
-        <v>190</v>
+        <f>200-IF(L15&gt;=3,-100,0)</f>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>750</v>
+        <f>600+IF(L16&gt;=3,-100,0)</f>
+        <v>500</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <f>200-IF(L16&gt;=3,-100,0)</f>
+        <v>300</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
       <c r="K16">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>750</v>
+        <f>500+IF(L17&gt;=3,-100,0)</f>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <f>200-IF(L17&gt;=3,-100,0)</f>
+        <v>200</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -1861,50 +2018,13 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>750</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
